--- a/src/main/resources/NewspaperChanges.xlsx
+++ b/src/main/resources/NewspaperChanges.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
